--- a/単語の配列をつくる.xlsx
+++ b/単語の配列をつくる.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\du34f\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\du34f\Desktop\tangocho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F88AAD3-9ADA-47C2-B291-B321646B5A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0E119C-2D0C-4D30-98FB-056D4A64D879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F70CB38-5C98-4BF8-AE39-BA7002CC8C54}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="153">
   <si>
     <t>前置詞or接続詞_暗記カード</t>
   </si>
@@ -236,19 +236,10 @@
     <t>with regard to</t>
   </si>
   <si>
-    <t>(接副)</t>
-  </si>
-  <si>
     <t>in regard to</t>
   </si>
   <si>
     <t>with respect to</t>
-  </si>
-  <si>
-    <t>(前) ～</t>
-  </si>
-  <si>
-    <t>(接) ～</t>
   </si>
   <si>
     <t>with reference to</t>
@@ -380,6 +371,161 @@
     <rPh sb="7" eb="8">
       <t>セツ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>given</t>
+  </si>
+  <si>
+    <t>(前) ～を考慮に入れると</t>
+  </si>
+  <si>
+    <t>in light of</t>
+  </si>
+  <si>
+    <t>in the event of</t>
+  </si>
+  <si>
+    <t>(前) ～の場合</t>
+  </si>
+  <si>
+    <t>(前) ～に加えて</t>
+  </si>
+  <si>
+    <t>except for</t>
+  </si>
+  <si>
+    <t>(前) ～を除いて</t>
+  </si>
+  <si>
+    <t>regardless of</t>
+  </si>
+  <si>
+    <t>(前) ～とは無関係に</t>
+  </si>
+  <si>
+    <t>instead of</t>
+  </si>
+  <si>
+    <t>whereas</t>
+  </si>
+  <si>
+    <t>(接) ～一方で</t>
+  </si>
+  <si>
+    <t>whether</t>
+  </si>
+  <si>
+    <t>(接) ～であろうと、～かどうか</t>
+  </si>
+  <si>
+    <t>rather than</t>
+  </si>
+  <si>
+    <t>(前) ～ではなく</t>
+  </si>
+  <si>
+    <t>in lieu of</t>
+  </si>
+  <si>
+    <t>in place of</t>
+  </si>
+  <si>
+    <t>～ではなく、～の代わりに</t>
+  </si>
+  <si>
+    <t>as long as</t>
+  </si>
+  <si>
+    <t>(接) ～する限り</t>
+  </si>
+  <si>
+    <t>in case</t>
+  </si>
+  <si>
+    <t>(接) ～するといけないので</t>
+  </si>
+  <si>
+    <t>given that</t>
+  </si>
+  <si>
+    <t>(接) ～を考慮に入れると</t>
+  </si>
+  <si>
+    <t>in the event that</t>
+  </si>
+  <si>
+    <t>(接) ～した場合</t>
+  </si>
+  <si>
+    <t>insofar as</t>
+  </si>
+  <si>
+    <t>(接) ～する限りにおいて</t>
+  </si>
+  <si>
+    <t>inasmuch as</t>
+  </si>
+  <si>
+    <t>therefore</t>
+  </si>
+  <si>
+    <t>(接副) したがって</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>(接副) しかしながら</t>
+  </si>
+  <si>
+    <t>nevertheless</t>
+  </si>
+  <si>
+    <t>(接副) それにもかかわらず</t>
+  </si>
+  <si>
+    <t>moreover</t>
+  </si>
+  <si>
+    <t>(接副) そのうえ</t>
+  </si>
+  <si>
+    <t>furthermore</t>
+  </si>
+  <si>
+    <t>(接副) さらに</t>
+  </si>
+  <si>
+    <t>consequently</t>
+  </si>
+  <si>
+    <t>(接副) 結果として</t>
+  </si>
+  <si>
+    <t>thereby</t>
+  </si>
+  <si>
+    <t>(接副) そうすることで</t>
+  </si>
+  <si>
+    <t>thus</t>
+  </si>
+  <si>
+    <t>(接副) このようにして</t>
+  </si>
+  <si>
+    <t>meanwhile</t>
+  </si>
+  <si>
+    <t>(接副) その間</t>
+  </si>
+  <si>
+    <t>(接) ～する限りにおいて、～するので</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -872,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A51A50-8A42-4342-A17E-2D756D8DFFA6}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -885,7 +1031,7 @@
     <col min="4" max="4" width="31.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="54" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +1621,7 @@
     </row>
     <row r="32" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>50</v>
@@ -1495,7 +1641,7 @@
     </row>
     <row r="33" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>51</v>
@@ -1515,7 +1661,7 @@
     </row>
     <row r="34" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>52</v>
@@ -1535,7 +1681,7 @@
     </row>
     <row r="35" spans="1:6" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>53</v>
@@ -1555,7 +1701,7 @@
     </row>
     <row r="36" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>54</v>
@@ -1575,7 +1721,7 @@
     </row>
     <row r="37" spans="1:6" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>55</v>
@@ -1595,7 +1741,7 @@
     </row>
     <row r="38" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>56</v>
@@ -1615,10 +1761,10 @@
     </row>
     <row r="39" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1815,7 +1961,7 @@
     </row>
     <row r="49" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>63</v>
@@ -1835,7 +1981,7 @@
     </row>
     <row r="50" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>63</v>
@@ -1855,7 +2001,7 @@
     </row>
     <row r="51" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>63</v>
@@ -1875,7 +2021,7 @@
     </row>
     <row r="52" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>63</v>
@@ -1895,7 +2041,7 @@
     </row>
     <row r="53" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>63</v>
@@ -1915,7 +2061,7 @@
     </row>
     <row r="54" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>63</v>
@@ -1935,7 +2081,7 @@
     </row>
     <row r="55" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>14</v>
@@ -1955,7 +2101,7 @@
     </row>
     <row r="56" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>50</v>
@@ -1975,7 +2121,7 @@
     </row>
     <row r="57" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>50</v>
@@ -1995,7 +2141,7 @@
     </row>
     <row r="58" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>52</v>
@@ -2015,10 +2161,10 @@
     </row>
     <row r="59" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C59" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2035,10 +2181,10 @@
     </row>
     <row r="60" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C60" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2055,10 +2201,10 @@
     </row>
     <row r="61" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C61" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2075,10 +2221,10 @@
     </row>
     <row r="62" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2095,10 +2241,10 @@
     </row>
     <row r="63" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C63" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2115,10 +2261,10 @@
     </row>
     <row r="64" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C64" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2135,10 +2281,10 @@
     </row>
     <row r="65" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C65" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2155,10 +2301,10 @@
     </row>
     <row r="66" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C66" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2175,10 +2321,10 @@
     </row>
     <row r="67" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C67" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2195,10 +2341,10 @@
     </row>
     <row r="68" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C68" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2209,241 +2355,623 @@
         <v xml:space="preserve"> ～中に、最中に</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" ref="F68" si="6">"[" &amp; """" &amp; A68 &amp;  """ ," &amp;  """" &amp; C68 &amp; """ ," &amp;  """" &amp; D68 &amp; """],"</f>
+        <f t="shared" ref="F68:F98" si="6">"[" &amp; """" &amp; A68 &amp;  """ ," &amp;  """" &amp; C68 &amp; """ ," &amp;  """" &amp; D68 &amp; """],"</f>
         <v>["among" ,"(前) " ," ～中に、最中に"],</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="C69" s="3" t="str">
+        <f t="shared" ref="C69:C79" si="7">LEFT(B69,4)</f>
+        <v/>
+      </c>
+      <c r="D69" s="3" t="e">
+        <f t="shared" ref="D69:D79" si="8">RIGHT(B69,LEN(B69)-3)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="A70" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">(前) </v>
+      </c>
+      <c r="D70" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ～を考慮に入れると</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="6"/>
+        <v>["given" ,"(前) " ," ～を考慮に入れると"],</v>
+      </c>
     </row>
     <row r="71" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="4"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="A71" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">(前) </v>
+      </c>
+      <c r="D71" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ～を考慮に入れると</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="6"/>
+        <v>["in light of" ,"(前) " ," ～を考慮に入れると"],</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="4"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="A72" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">(前) </v>
+      </c>
+      <c r="D72" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ～の場合</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="6"/>
+        <v>["in the event of" ,"(前) " ," ～の場合"],</v>
+      </c>
     </row>
     <row r="73" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="A73" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">(前) </v>
+      </c>
+      <c r="D73" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ～に加えて</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="6"/>
+        <v>["in addition to" ,"(前) " ," ～に加えて"],</v>
+      </c>
     </row>
     <row r="74" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="4"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="A74" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">(前) </v>
+      </c>
+      <c r="D74" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ～を除いて</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="6"/>
+        <v>["except for" ,"(前) " ," ～を除いて"],</v>
+      </c>
     </row>
     <row r="75" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="4"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="A75" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">(前) </v>
+      </c>
+      <c r="D75" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ～とは無関係に</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="6"/>
+        <v>["regardless of" ,"(前) " ," ～とは無関係に"],</v>
+      </c>
     </row>
     <row r="76" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="4"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="A76" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">(前) </v>
+      </c>
+      <c r="D76" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ～の代わりに</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="6"/>
+        <v>["instead of" ,"(前) " ," ～の代わりに"],</v>
+      </c>
     </row>
     <row r="77" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="4"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="4"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
+      <c r="A77" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">(接) </v>
+      </c>
+      <c r="D77" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ～一方で</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="6"/>
+        <v>["whereas" ,"(接) " ," ～一方で"],</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A78" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">(接) </v>
+      </c>
+      <c r="D78" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ～であろうと、～かどうか</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="6"/>
+        <v>["whether" ,"(接) " ," ～であろうと、～かどうか"],</v>
+      </c>
     </row>
     <row r="79" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="4"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="A79" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">(接) </v>
+      </c>
+      <c r="D79" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ～するとすぐに</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="6"/>
+        <v>["as soon as" ,"(接) " ," ～するとすぐに"],</v>
+      </c>
     </row>
     <row r="80" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-    </row>
-    <row r="83" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A83" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-    </row>
-    <row r="84" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-    </row>
-    <row r="86" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A86" s="4"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-    </row>
-    <row r="87" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A87" s="4"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-    </row>
-    <row r="88" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="4"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-    </row>
-    <row r="89" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A89" s="4"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-    </row>
-    <row r="90" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-    </row>
-    <row r="91" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A91" s="4"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-    </row>
-    <row r="92" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A92" s="4"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-    </row>
-    <row r="93" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="4"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-    </row>
-    <row r="94" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-    </row>
-    <row r="95" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-    </row>
-    <row r="96" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A98" s="4"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A80" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="3" t="str">
+        <f t="shared" ref="C80:C98" si="9">LEFT(B80,4)</f>
+        <v xml:space="preserve">(接) </v>
+      </c>
+      <c r="D80" s="3" t="str">
+        <f t="shared" ref="D80:D98" si="10">RIGHT(B80,LEN(B80)-3)</f>
+        <v xml:space="preserve"> 今はもう～なので</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="6"/>
+        <v>["now that" ,"(接) " ," 今はもう～なので"],</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A81" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">(前) </v>
+      </c>
+      <c r="D81" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> ～ではなく</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="6"/>
+        <v>["rather than" ,"(前) " ," ～ではなく"],</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">(前) </v>
+      </c>
+      <c r="D82" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> ～ではなく</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="6"/>
+        <v>["in lieu of" ,"(前) " ," ～ではなく"],</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A83" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>なく、～の代わりに</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="6"/>
+        <v>["in place of" ,"-" ,"なく、～の代わりに"],</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">(接) </v>
+      </c>
+      <c r="D84" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> ～する限り</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="6"/>
+        <v>["as long as" ,"(接) " ," ～する限り"],</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A85" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">(接) </v>
+      </c>
+      <c r="D85" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> ～するといけないので</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="6"/>
+        <v>["in case" ,"(接) " ," ～するといけないので"],</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A86" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">(接) </v>
+      </c>
+      <c r="D86" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> ～を考慮に入れると</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="6"/>
+        <v>["given that" ,"(接) " ," ～を考慮に入れると"],</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A87" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">(接) </v>
+      </c>
+      <c r="D87" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> ～した場合</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="6"/>
+        <v>["in the event that" ,"(接) " ," ～した場合"],</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A88" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">(接) </v>
+      </c>
+      <c r="D88" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> ～する限りにおいて</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="6"/>
+        <v>["insofar as" ,"(接) " ," ～する限りにおいて"],</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A89" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">(接) </v>
+      </c>
+      <c r="D89" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> ～する限りにおいて、～するので</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="6"/>
+        <v>["inasmuch as" ,"(接) " ," ～する限りにおいて、～するので"],</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>(接副)</v>
+      </c>
+      <c r="D90" s="3" t="str">
+        <f>RIGHT(B90,LEN(B90)-4)</f>
+        <v xml:space="preserve"> したがって</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="6"/>
+        <v>["therefore" ,"(接副)" ," したがって"],</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A91" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>(接副)</v>
+      </c>
+      <c r="D91" s="3" t="str">
+        <f t="shared" ref="D91:D98" si="11">RIGHT(B91,LEN(B91)-4)</f>
+        <v xml:space="preserve"> しかしながら</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="6"/>
+        <v>["however" ,"(接副)" ," しかしながら"],</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A92" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>(接副)</v>
+      </c>
+      <c r="D92" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> それにもかかわらず</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="6"/>
+        <v>["nevertheless" ,"(接副)" ," それにもかかわらず"],</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A93" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>(接副)</v>
+      </c>
+      <c r="D93" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> そのうえ</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="6"/>
+        <v>["moreover" ,"(接副)" ," そのうえ"],</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A94" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>(接副)</v>
+      </c>
+      <c r="D94" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> さらに</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="6"/>
+        <v>["furthermore" ,"(接副)" ," さらに"],</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A95" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>(接副)</v>
+      </c>
+      <c r="D95" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> 結果として</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="6"/>
+        <v>["consequently" ,"(接副)" ," 結果として"],</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A96" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>(接副)</v>
+      </c>
+      <c r="D96" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> そうすることで</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="6"/>
+        <v>["thereby" ,"(接副)" ," そうすることで"],</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A97" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C97" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>(接副)</v>
+      </c>
+      <c r="D97" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> このようにして</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="6"/>
+        <v>["thus" ,"(接副)" ," このようにして"],</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A98" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>(接副)</v>
+      </c>
+      <c r="D98" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> その間</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="6"/>
+        <v>["meanwhile" ,"(接副)" ," その間"],</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A102" s="4"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-    </row>
-    <row r="103" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="4"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A104" s="1"/>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
